--- a/experiment_record/stackMNIST.xlsx
+++ b/experiment_record/stackMNIST.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20358"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC431334-3A2E-4463-9DD3-32FF7EF222E7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D0131A8-4333-46BA-B251-AFDF9D069A63}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="26">
   <si>
     <t>alpha</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -511,8 +511,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="M31" sqref="M31"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="N40" sqref="N40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1100,6 +1100,33 @@
         <v>18</v>
       </c>
       <c r="J27" s="1"/>
+      <c r="K27" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M27" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N27" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="O27" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="P27" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q27" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="R27" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="S27" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
@@ -1121,7 +1148,7 @@
         <v>8</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H28" s="1">
         <v>4</v>
@@ -1130,6 +1157,33 @@
         <v>100</v>
       </c>
       <c r="J28" s="1"/>
+      <c r="K28" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="L28" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="M28" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="N28" s="1">
+        <v>1E-4</v>
+      </c>
+      <c r="O28" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="P28" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q28" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="R28" s="1">
+        <v>4</v>
+      </c>
+      <c r="S28" s="1">
+        <v>100</v>
+      </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.2">
       <c r="E29" s="1"/>
@@ -1137,6 +1191,15 @@
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
       <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
+      <c r="P29" s="1"/>
+      <c r="Q29" s="1"/>
+      <c r="R29" s="1"/>
+      <c r="S29" s="1"/>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
@@ -1158,6 +1221,23 @@
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
       <c r="J30" s="1"/>
+      <c r="K30" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L30" s="1">
+        <v>0</v>
+      </c>
+      <c r="M30" s="1">
+        <v>50</v>
+      </c>
+      <c r="N30" s="1">
+        <v>100</v>
+      </c>
+      <c r="O30" s="1"/>
+      <c r="P30" s="1"/>
+      <c r="Q30" s="1"/>
+      <c r="R30" s="1"/>
+      <c r="S30" s="1"/>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
@@ -1177,6 +1257,23 @@
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
       <c r="J31" s="1"/>
+      <c r="K31" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L31" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="M31" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="N31" s="2">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="O31" s="2"/>
+      <c r="P31" s="1"/>
+      <c r="Q31" s="1"/>
+      <c r="R31" s="1"/>
+      <c r="S31" s="1"/>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.2">
       <c r="E32" s="1"/>
@@ -1184,8 +1281,17 @@
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
       <c r="J32" s="1"/>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+      <c r="P32" s="1"/>
+      <c r="Q32" s="1"/>
+      <c r="R32" s="1"/>
+      <c r="S32" s="1"/>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B33" s="1" t="s">
         <v>12</v>
       </c>
@@ -1200,8 +1306,23 @@
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
       <c r="J33" s="1"/>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K33" s="1"/>
+      <c r="L33" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M33" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N33" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O33" s="1"/>
+      <c r="P33" s="1"/>
+      <c r="Q33" s="1"/>
+      <c r="R33" s="1"/>
+      <c r="S33" s="1"/>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>15</v>
       </c>
@@ -1219,11 +1340,33 @@
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
       <c r="J34" s="1"/>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K34" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L34" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M34" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N34" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O34" s="1"/>
+      <c r="P34" s="1"/>
+      <c r="Q34" s="1"/>
+      <c r="R34" s="1"/>
+      <c r="S34" s="1"/>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.2">
       <c r="J35" s="1"/>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
+      <c r="S35" s="1"/>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>10</v>
       </c>
@@ -1235,8 +1378,19 @@
       </c>
       <c r="E36" s="1"/>
       <c r="J36" s="1"/>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K36" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L36" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M36" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N36" s="1"/>
+      <c r="S36" s="1"/>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>10</v>
       </c>
@@ -1247,8 +1401,19 @@
         <v>999</v>
       </c>
       <c r="J37" s="1"/>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K37" s="1">
+        <v>10</v>
+      </c>
+      <c r="L37" s="1">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="M37" s="1">
+        <v>1000</v>
+      </c>
+      <c r="N37" s="1"/>
+      <c r="S37" s="1"/>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>20</v>
       </c>
@@ -1259,8 +1424,19 @@
         <v>1000</v>
       </c>
       <c r="J38" s="1"/>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K38" s="1">
+        <v>20</v>
+      </c>
+      <c r="L38" s="1">
+        <v>0.112</v>
+      </c>
+      <c r="M38" s="1">
+        <v>1000</v>
+      </c>
+      <c r="N38" s="1"/>
+      <c r="S38" s="1"/>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>30</v>
       </c>
@@ -1271,8 +1447,19 @@
         <v>1000</v>
       </c>
       <c r="J39" s="1"/>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K39" s="1">
+        <v>30</v>
+      </c>
+      <c r="L39" s="1">
+        <v>0.105</v>
+      </c>
+      <c r="M39" s="1">
+        <v>1000</v>
+      </c>
+      <c r="N39" s="1"/>
+      <c r="S39" s="1"/>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>40</v>
       </c>
@@ -1283,8 +1470,19 @@
         <v>1000</v>
       </c>
       <c r="J40" s="1"/>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K40" s="1">
+        <v>40</v>
+      </c>
+      <c r="L40" s="1">
+        <v>0.12</v>
+      </c>
+      <c r="M40" s="1">
+        <v>1000</v>
+      </c>
+      <c r="N40" s="1"/>
+      <c r="S40" s="1"/>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>50</v>
       </c>
@@ -1295,8 +1493,21 @@
         <v>1000</v>
       </c>
       <c r="J41" s="1"/>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K41" s="1">
+        <v>50</v>
+      </c>
+      <c r="L41" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M41" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N41" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="S41" s="1"/>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>60</v>
       </c>
@@ -1307,8 +1518,15 @@
         <v>1000</v>
       </c>
       <c r="J42" s="1"/>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K42" s="1">
+        <v>60</v>
+      </c>
+      <c r="L42" s="1"/>
+      <c r="M42" s="1"/>
+      <c r="N42" s="1"/>
+      <c r="S42" s="1"/>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>70</v>
       </c>
@@ -1322,54 +1540,117 @@
         <v>23</v>
       </c>
       <c r="J43" s="1"/>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K43" s="1">
+        <v>70</v>
+      </c>
+      <c r="L43" s="1"/>
+      <c r="M43" s="1"/>
+      <c r="N43" s="1"/>
+      <c r="S43" s="1"/>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>80</v>
       </c>
       <c r="J44" s="1"/>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K44" s="1">
+        <v>80</v>
+      </c>
+      <c r="L44" s="1"/>
+      <c r="M44" s="1"/>
+      <c r="N44" s="1"/>
+      <c r="S44" s="1"/>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>90</v>
       </c>
       <c r="J45" s="1"/>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K45" s="1">
+        <v>90</v>
+      </c>
+      <c r="L45" s="1"/>
+      <c r="M45" s="1"/>
+      <c r="N45" s="1"/>
+      <c r="S45" s="1"/>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>100</v>
       </c>
       <c r="J46" s="1"/>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K46" s="1">
+        <v>100</v>
+      </c>
+      <c r="L46" s="1"/>
+      <c r="M46" s="1"/>
+      <c r="N46" s="1"/>
+      <c r="S46" s="1"/>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>110</v>
       </c>
       <c r="J47" s="1"/>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K47" s="1">
+        <v>110</v>
+      </c>
+      <c r="L47" s="1"/>
+      <c r="M47" s="1"/>
+      <c r="N47" s="1"/>
+      <c r="S47" s="1"/>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>120</v>
       </c>
       <c r="J48" s="1"/>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K48" s="1">
+        <v>120</v>
+      </c>
+      <c r="L48" s="1"/>
+      <c r="M48" s="1"/>
+      <c r="N48" s="1"/>
+      <c r="S48" s="1"/>
+    </row>
+    <row r="49" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>130</v>
       </c>
       <c r="J49" s="1"/>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K49" s="1">
+        <v>130</v>
+      </c>
+      <c r="L49" s="1"/>
+      <c r="M49" s="1"/>
+      <c r="N49" s="1"/>
+      <c r="S49" s="1"/>
+    </row>
+    <row r="50" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>140</v>
       </c>
       <c r="J50" s="1"/>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K50" s="1">
+        <v>140</v>
+      </c>
+      <c r="L50" s="1"/>
+      <c r="M50" s="1"/>
+      <c r="N50" s="1"/>
+      <c r="S50" s="1"/>
+    </row>
+    <row r="51" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>150</v>
       </c>
       <c r="J51" s="1"/>
+      <c r="K51" s="1">
+        <v>150</v>
+      </c>
+      <c r="L51" s="1"/>
+      <c r="M51" s="1"/>
+      <c r="N51" s="1"/>
+      <c r="S51" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
